--- a/Code/Results/Cases/Case_3_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_254/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.134732665328983</v>
+        <v>0.8080807042508411</v>
       </c>
       <c r="C2">
-        <v>0.1159046243188726</v>
+        <v>0.1644293338300642</v>
       </c>
       <c r="D2">
-        <v>0.09958534130877439</v>
+        <v>0.1433246603658134</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.014462296100035</v>
+        <v>2.08772282293279</v>
       </c>
       <c r="G2">
-        <v>0.0008342326319104821</v>
+        <v>0.00252037125172649</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1004671067737455</v>
+        <v>0.2403379213716903</v>
       </c>
       <c r="K2">
-        <v>0.895689701077913</v>
+        <v>0.3867118761887127</v>
       </c>
       <c r="L2">
-        <v>0.2339838599649369</v>
+        <v>0.3154163334477289</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.61443255380405</v>
+        <v>5.470469219942089</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9897325286898422</v>
+        <v>0.7694453040819269</v>
       </c>
       <c r="C3">
-        <v>0.1156205513063888</v>
+        <v>0.1643014535607001</v>
       </c>
       <c r="D3">
-        <v>0.08956222622149568</v>
+        <v>0.141205728894505</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.999946976134936</v>
+        <v>2.096430486766238</v>
       </c>
       <c r="G3">
-        <v>0.0008382789303461036</v>
+        <v>0.002523015945694305</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.10048209914358</v>
+        <v>0.2415781363556349</v>
       </c>
       <c r="K3">
-        <v>0.7785502322469711</v>
+        <v>0.3526390045186929</v>
       </c>
       <c r="L3">
-        <v>0.2104332337493133</v>
+        <v>0.3105214654573416</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.608246951081895</v>
+        <v>5.501896778246902</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9011181469863629</v>
+        <v>0.7460048284323761</v>
       </c>
       <c r="C4">
-        <v>0.1154767078476482</v>
+        <v>0.1642360130567013</v>
       </c>
       <c r="D4">
-        <v>0.08347017928232248</v>
+        <v>0.1399557901362485</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9926325071352196</v>
+        <v>2.102684395150035</v>
       </c>
       <c r="G4">
-        <v>0.0008408471176646479</v>
+        <v>0.002524727336564507</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1006189535791471</v>
+        <v>0.2424222113708971</v>
       </c>
       <c r="K4">
-        <v>0.7067560552724785</v>
+        <v>0.3317872330759712</v>
       </c>
       <c r="L4">
-        <v>0.1961501309946598</v>
+        <v>0.3076400480756192</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.608851699914197</v>
+        <v>5.523603024747928</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8650969031408522</v>
+        <v>0.7365242307037079</v>
       </c>
       <c r="C5">
-        <v>0.1154256738225676</v>
+        <v>0.1642126562354846</v>
       </c>
       <c r="D5">
-        <v>0.08100221474283842</v>
+        <v>0.1394593493931424</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9900386648291928</v>
+        <v>2.105461277789409</v>
       </c>
       <c r="G5">
-        <v>0.0008419150897501591</v>
+        <v>0.002525446819790089</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1007059359041484</v>
+        <v>0.242786972454816</v>
       </c>
       <c r="K5">
-        <v>0.6775212756696192</v>
+        <v>0.3233078777176814</v>
       </c>
       <c r="L5">
-        <v>0.1903710245529595</v>
+        <v>0.3064971765733873</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.610165027290037</v>
+        <v>5.533054731253188</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8591206109087466</v>
+        <v>0.7349543296014645</v>
       </c>
       <c r="C6">
-        <v>0.1154176547663113</v>
+        <v>0.1642089784622982</v>
       </c>
       <c r="D6">
-        <v>0.08059326310458914</v>
+        <v>0.1393776981947994</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9896309008903188</v>
+        <v>2.105936175536371</v>
       </c>
       <c r="G6">
-        <v>0.0008420937292893393</v>
+        <v>0.002525567624597058</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1007222393463252</v>
+        <v>0.242848797487099</v>
       </c>
       <c r="K6">
-        <v>0.6726678853197114</v>
+        <v>0.3219009847162937</v>
       </c>
       <c r="L6">
-        <v>0.1894138181461713</v>
+        <v>0.3063092998541919</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.610446402726609</v>
+        <v>5.534660804493399</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9006320071674168</v>
+        <v>0.7458766789663969</v>
       </c>
       <c r="C7">
-        <v>0.1154759890130457</v>
+        <v>0.1642356846243729</v>
       </c>
       <c r="D7">
-        <v>0.0834368376977892</v>
+        <v>0.1399490425571486</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9925959785271985</v>
+        <v>2.102720920259848</v>
       </c>
       <c r="G7">
-        <v>0.0008408614335269408</v>
+        <v>0.002524736950479267</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1006200014119436</v>
+        <v>0.2424270464354912</v>
       </c>
       <c r="K7">
-        <v>0.7063617097602446</v>
+        <v>0.3316728042959625</v>
       </c>
       <c r="L7">
-        <v>0.1960720284714981</v>
+        <v>0.3076245078783089</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.608865143832901</v>
+        <v>5.52372803872521</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.084640982821355</v>
+        <v>0.7947011460056785</v>
       </c>
       <c r="C8">
-        <v>0.115800262421125</v>
+        <v>0.1643825392946532</v>
       </c>
       <c r="D8">
-        <v>0.09611581658632673</v>
+        <v>0.142583490218847</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.009116510032285</v>
+        <v>2.090537018643317</v>
       </c>
       <c r="G8">
-        <v>0.0008356106344022062</v>
+        <v>0.002521265012766789</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1004452363221979</v>
+        <v>0.2407484255960064</v>
       </c>
       <c r="K8">
-        <v>0.8552663511596847</v>
+        <v>0.3749495143986508</v>
       </c>
       <c r="L8">
-        <v>0.2258248955070599</v>
+        <v>0.3137029153087525</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.611361143797609</v>
+        <v>5.480805519456908</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.449513883759323</v>
+        <v>0.8926556043767562</v>
       </c>
       <c r="C9">
-        <v>0.1166841690126148</v>
+        <v>0.1647733794872934</v>
       </c>
       <c r="D9">
-        <v>0.1215237169674879</v>
+        <v>0.1481522754924782</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.054907298176985</v>
+        <v>2.073836320730962</v>
       </c>
       <c r="G9">
-        <v>0.0008259612807022609</v>
+        <v>0.002515148161920542</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1011575643399851</v>
+        <v>0.2381106556054426</v>
       </c>
       <c r="K9">
-        <v>1.148828828829096</v>
+        <v>0.4603443520740598</v>
       </c>
       <c r="L9">
-        <v>0.2857286296988946</v>
+        <v>0.3266018712745762</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.653107695586414</v>
+        <v>5.415741505964405</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.721147566141866</v>
+        <v>0.965942634188707</v>
       </c>
       <c r="C10">
-        <v>0.1174931720061565</v>
+        <v>0.1651220864001886</v>
       </c>
       <c r="D10">
-        <v>0.1405998025118294</v>
+        <v>0.1524859632556712</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.097771234784005</v>
+        <v>2.065942019120712</v>
       </c>
       <c r="G10">
-        <v>0.0008192415204684552</v>
+        <v>0.002511071574108734</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1023863334915696</v>
+        <v>0.2365698088022157</v>
       </c>
       <c r="K10">
-        <v>1.366266876753741</v>
+        <v>0.5233875553033727</v>
       </c>
       <c r="L10">
-        <v>0.330920397810047</v>
+        <v>0.3366701830089056</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.709076800890614</v>
+        <v>5.379573629572235</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.845758941935031</v>
+        <v>0.9995641398391797</v>
       </c>
       <c r="C11">
-        <v>0.117897962162985</v>
+        <v>0.1652938537070128</v>
       </c>
       <c r="D11">
-        <v>0.1493851454252564</v>
+        <v>0.15450944980131</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.119524617997769</v>
+        <v>2.063299127300439</v>
       </c>
       <c r="G11">
-        <v>0.0008162589115631323</v>
+        <v>0.002509306792139741</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1031132801023809</v>
+        <v>0.2359547429604589</v>
       </c>
       <c r="K11">
-        <v>1.46576078324901</v>
+        <v>0.5521298434086077</v>
       </c>
       <c r="L11">
-        <v>0.3517906357242566</v>
+        <v>0.3413778631244355</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.740706116154115</v>
+        <v>5.365643701282949</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.893119385480531</v>
+        <v>1.012335790324272</v>
       </c>
       <c r="C12">
-        <v>0.1180567246727691</v>
+        <v>0.1653607664180967</v>
       </c>
       <c r="D12">
-        <v>0.1527289889606891</v>
+        <v>0.1552831146413922</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.128108688032725</v>
+        <v>2.062434527776745</v>
       </c>
       <c r="G12">
-        <v>0.0008151396406977081</v>
+        <v>0.002508651343890116</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1034140304789091</v>
+        <v>0.2357341550016159</v>
       </c>
       <c r="K12">
-        <v>1.503537012830776</v>
+        <v>0.5630225019697548</v>
       </c>
       <c r="L12">
-        <v>0.3597433937615193</v>
+        <v>0.3431787630561729</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.753630893816762</v>
+        <v>5.36073136835094</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.882911400552331</v>
+        <v>1.009583423682642</v>
       </c>
       <c r="C13">
-        <v>0.1180222855154511</v>
+        <v>0.1653462728161372</v>
       </c>
       <c r="D13">
-        <v>0.1520080492179545</v>
+        <v>0.1551161634825604</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.126244169627228</v>
+        <v>2.06261467938441</v>
       </c>
       <c r="G13">
-        <v>0.0008153802512921304</v>
+        <v>0.002508791936474256</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1033481037024799</v>
+        <v>0.2357811148329318</v>
       </c>
       <c r="K13">
-        <v>1.495396498291967</v>
+        <v>0.560676200611681</v>
       </c>
       <c r="L13">
-        <v>0.3580283375142841</v>
+        <v>0.3427900996261855</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.750804165718506</v>
+        <v>5.361773201977229</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.849651714429001</v>
+        <v>1.000614075580586</v>
       </c>
       <c r="C14">
-        <v>0.1179109127289948</v>
+        <v>0.1652993213356808</v>
       </c>
       <c r="D14">
-        <v>0.1496598949125882</v>
+        <v>0.1545729514965188</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.120223755776934</v>
+        <v>2.063225267278895</v>
       </c>
       <c r="G14">
-        <v>0.000816166627485058</v>
+        <v>0.002509252611013677</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1031375046609568</v>
+        <v>0.2359363482016867</v>
       </c>
       <c r="K14">
-        <v>1.468866551679497</v>
+        <v>0.5530258203307881</v>
       </c>
       <c r="L14">
-        <v>0.3524438904154152</v>
+        <v>0.3415256602108485</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.741750095826802</v>
+        <v>5.36523229410102</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.829302405492371</v>
+        <v>0.9951252666034236</v>
       </c>
       <c r="C15">
-        <v>0.117843412909302</v>
+        <v>0.1652708048635887</v>
       </c>
       <c r="D15">
-        <v>0.1482238479196809</v>
+        <v>0.1542411818736156</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.116581898306151</v>
+        <v>2.063617003521045</v>
       </c>
       <c r="G15">
-        <v>0.0008166496157724912</v>
+        <v>0.002509536457517263</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1030118644488134</v>
+        <v>0.2360330373669441</v>
       </c>
       <c r="K15">
-        <v>1.452629736754261</v>
+        <v>0.5483408417044018</v>
       </c>
       <c r="L15">
-        <v>0.3490298681267632</v>
+        <v>0.3407535211025703</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.736329467902124</v>
+        <v>5.367398307555874</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.713026828503985</v>
+        <v>0.9637510167226537</v>
       </c>
       <c r="C16">
-        <v>0.1174674737594685</v>
+        <v>0.1651111235729772</v>
       </c>
       <c r="D16">
-        <v>0.1400279546166843</v>
+        <v>0.1523547651735839</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.09639683957613</v>
+        <v>2.066133806751765</v>
       </c>
       <c r="G16">
-        <v>0.0008194378930379855</v>
+        <v>0.002511188706227837</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.102342316418774</v>
+        <v>0.2366117307064783</v>
       </c>
       <c r="K16">
-        <v>1.359777783331765</v>
+        <v>0.5215104105373598</v>
       </c>
       <c r="L16">
-        <v>0.3295631606328584</v>
+        <v>0.3363650799180107</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.707138945763944</v>
+        <v>5.380534737484879</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.641978525520955</v>
+        <v>0.9445758383662337</v>
       </c>
       <c r="C17">
-        <v>0.1172463946796753</v>
+        <v>0.1650165142779443</v>
       </c>
       <c r="D17">
-        <v>0.1350286594882704</v>
+        <v>0.1512107939044256</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.084606779767086</v>
+        <v>2.067920548614367</v>
       </c>
       <c r="G17">
-        <v>0.000821167081893492</v>
+        <v>0.002512225233757093</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1019755014776642</v>
+        <v>0.2369887171531389</v>
       </c>
       <c r="K17">
-        <v>1.302976159731912</v>
+        <v>0.5050666977532785</v>
       </c>
       <c r="L17">
-        <v>0.3177042203884639</v>
+        <v>0.3337054845268028</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.690853091181538</v>
+        <v>5.389239590557679</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.601210216488624</v>
+        <v>0.9335734531209994</v>
       </c>
       <c r="C18">
-        <v>0.1171226844993498</v>
+        <v>0.1649633354491229</v>
       </c>
       <c r="D18">
-        <v>0.1321632192533286</v>
+        <v>0.1505577173543315</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.078036212067062</v>
+        <v>2.069037499676696</v>
       </c>
       <c r="G18">
-        <v>0.0008221686853805421</v>
+        <v>0.00251282986159746</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1017802456453474</v>
+        <v>0.2372136340173405</v>
       </c>
       <c r="K18">
-        <v>1.270358917216612</v>
+        <v>0.4956147311379766</v>
       </c>
       <c r="L18">
-        <v>0.3109123609267215</v>
+        <v>0.3321877699148956</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.682062663142005</v>
+        <v>5.394483881037075</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.587422727133713</v>
+        <v>0.929852838354293</v>
       </c>
       <c r="C19">
-        <v>0.1170813851681771</v>
+        <v>0.164945543275735</v>
       </c>
       <c r="D19">
-        <v>0.1311947058913319</v>
+        <v>0.1503374416081158</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.075847073368848</v>
+        <v>2.069431016031089</v>
       </c>
       <c r="G19">
-        <v>0.0008225090313960653</v>
+        <v>0.002513036030289411</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1017167977256541</v>
+        <v>0.2372911762198981</v>
       </c>
       <c r="K19">
-        <v>1.259323990602496</v>
+        <v>0.492415509361507</v>
       </c>
       <c r="L19">
-        <v>0.3086176109127052</v>
+        <v>0.3316759655205175</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.679183664162821</v>
+        <v>5.396300302147381</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.649531561428319</v>
+        <v>0.9466143140874976</v>
       </c>
       <c r="C20">
-        <v>0.1172695706828719</v>
+        <v>0.165026457632159</v>
       </c>
       <c r="D20">
-        <v>0.1355597947709839</v>
+        <v>0.1513320644329355</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.085839881594353</v>
+        <v>2.067721109469673</v>
       </c>
       <c r="G20">
-        <v>0.0008209822837926977</v>
+        <v>0.002512114020222671</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.102012912675157</v>
+        <v>0.2369477497913124</v>
       </c>
       <c r="K20">
-        <v>1.309017131074086</v>
+        <v>0.5068165399301563</v>
       </c>
       <c r="L20">
-        <v>0.3189635808688394</v>
+        <v>0.3339873605652315</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.69252663138667</v>
+        <v>5.388288366130638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.859416010760469</v>
+        <v>1.003247513277188</v>
       </c>
       <c r="C21">
-        <v>0.11794347536609</v>
+        <v>0.1653130615904601</v>
       </c>
       <c r="D21">
-        <v>0.1503491297205528</v>
+        <v>0.154732305383817</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.12198250629001</v>
+        <v>2.063042227436242</v>
       </c>
       <c r="G21">
-        <v>0.0008159353776378682</v>
+        <v>0.002509116951900409</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1031986604657149</v>
+        <v>0.2358904181183092</v>
       </c>
       <c r="K21">
-        <v>1.476656186223721</v>
+        <v>0.5552726942026425</v>
       </c>
       <c r="L21">
-        <v>0.3540827908395983</v>
+        <v>0.3418965637787039</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.744383279422323</v>
+        <v>5.364206434681137</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.997606736154864</v>
+        <v>1.040492892581824</v>
       </c>
       <c r="C22">
-        <v>0.1184159374826379</v>
+        <v>0.1655112532606893</v>
       </c>
       <c r="D22">
-        <v>0.1601148527045666</v>
+        <v>0.1569977423397262</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.147635218367299</v>
+        <v>2.060778150668568</v>
       </c>
       <c r="G22">
-        <v>0.0008126960058881864</v>
+        <v>0.002507232987860705</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1041227606268293</v>
+        <v>0.2352712139666622</v>
       </c>
       <c r="K22">
-        <v>1.586809779528323</v>
+        <v>0.5869913272315443</v>
       </c>
       <c r="L22">
-        <v>0.3773270856599424</v>
+        <v>0.3471717259177751</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.78382823336986</v>
+        <v>5.350581094617127</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.923750544998342</v>
+        <v>1.020593326870596</v>
       </c>
       <c r="C23">
-        <v>0.1181607778521609</v>
+        <v>0.1654044861020196</v>
       </c>
       <c r="D23">
-        <v>0.1548930045649257</v>
+        <v>0.1557847089125772</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.13375019988078</v>
+        <v>2.061913944989797</v>
       </c>
       <c r="G23">
-        <v>0.0008144196870702178</v>
+        <v>0.002508231670848939</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1036154447965174</v>
+        <v>0.2355951310582896</v>
       </c>
       <c r="K23">
-        <v>1.527958764131711</v>
+        <v>0.5700581329967065</v>
       </c>
       <c r="L23">
-        <v>0.3648928044148931</v>
+        <v>0.3443466155995338</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.762246455118174</v>
+        <v>5.357659859977957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.646116591683807</v>
+        <v>0.9456926516260182</v>
       </c>
       <c r="C24">
-        <v>0.1172590822637929</v>
+        <v>0.1650219584608763</v>
       </c>
       <c r="D24">
-        <v>0.1353196414619759</v>
+        <v>0.1512772236690978</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.085281751007699</v>
+        <v>2.067810996392353</v>
       </c>
       <c r="G24">
-        <v>0.0008210658076894222</v>
+        <v>0.002512164272663464</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1019959504842944</v>
+        <v>0.2369662456467161</v>
       </c>
       <c r="K24">
-        <v>1.306285888418358</v>
+        <v>0.5060254308110927</v>
       </c>
       <c r="L24">
-        <v>0.3183941433561586</v>
+        <v>0.3338598891313325</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.691768245082443</v>
+        <v>5.388717667851097</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.350265002665708</v>
+        <v>0.8659225809650195</v>
       </c>
       <c r="C25">
-        <v>0.1164176790216942</v>
+        <v>0.1646567548666695</v>
       </c>
       <c r="D25">
-        <v>0.114584262297214</v>
+        <v>0.1466029933380781</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.040980772870107</v>
+        <v>2.077585256915413</v>
       </c>
       <c r="G25">
-        <v>0.0008285048824027844</v>
+        <v>0.002516729322632884</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1008457201977926</v>
+        <v>0.2387543900651039</v>
       </c>
       <c r="K25">
-        <v>1.069165435433717</v>
+        <v>0.4371880982680523</v>
       </c>
       <c r="L25">
-        <v>0.2693333450069275</v>
+        <v>0.3230081004588499</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.637587579091502</v>
+        <v>5.431298910570803</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_254/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8080807042508411</v>
+        <v>1.134732665328869</v>
       </c>
       <c r="C2">
-        <v>0.1644293338300642</v>
+        <v>0.1159046243186239</v>
       </c>
       <c r="D2">
-        <v>0.1433246603658134</v>
+        <v>0.09958534130878149</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.08772282293279</v>
+        <v>1.014462296100021</v>
       </c>
       <c r="G2">
-        <v>0.00252037125172649</v>
+        <v>0.0008342326318758776</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2403379213716903</v>
+        <v>0.1004671067735536</v>
       </c>
       <c r="K2">
-        <v>0.3867118761887127</v>
+        <v>0.8956897010779699</v>
       </c>
       <c r="L2">
-        <v>0.3154163334477289</v>
+        <v>0.2339838599648942</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.470469219942089</v>
+        <v>2.614432553804022</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7694453040819269</v>
+        <v>0.9897325286897285</v>
       </c>
       <c r="C3">
-        <v>0.1643014535607001</v>
+        <v>0.1156205513062503</v>
       </c>
       <c r="D3">
-        <v>0.141205728894505</v>
+        <v>0.08956222622127541</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.096430486766238</v>
+        <v>0.999946976134936</v>
       </c>
       <c r="G3">
-        <v>0.002523015945694305</v>
+        <v>0.000838278930384356</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2415781363556349</v>
+        <v>0.1004820991436652</v>
       </c>
       <c r="K3">
-        <v>0.3526390045186929</v>
+        <v>0.7785502322471416</v>
       </c>
       <c r="L3">
-        <v>0.3105214654573416</v>
+        <v>0.2104332337493844</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.501896778246902</v>
+        <v>2.608246951081895</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7460048284323761</v>
+        <v>0.9011181469862208</v>
       </c>
       <c r="C4">
-        <v>0.1642360130567013</v>
+        <v>0.1154767078471757</v>
       </c>
       <c r="D4">
-        <v>0.1399557901362485</v>
+        <v>0.08347017928264933</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.102684395150035</v>
+        <v>0.9926325071351982</v>
       </c>
       <c r="G4">
-        <v>0.002524727336564507</v>
+        <v>0.0008408471176420652</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2424222113708971</v>
+        <v>0.1006189535791933</v>
       </c>
       <c r="K4">
-        <v>0.3317872330759712</v>
+        <v>0.7067560552724927</v>
       </c>
       <c r="L4">
-        <v>0.3076400480756192</v>
+        <v>0.1961501309947096</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.523603024747928</v>
+        <v>2.608851699914169</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7365242307037079</v>
+        <v>0.8650969031406532</v>
       </c>
       <c r="C5">
-        <v>0.1642126562354846</v>
+        <v>0.1154256738222479</v>
       </c>
       <c r="D5">
-        <v>0.1394593493931424</v>
+        <v>0.08100221474264657</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.105461277789409</v>
+        <v>0.9900386648291857</v>
       </c>
       <c r="G5">
-        <v>0.002525446819790089</v>
+        <v>0.0008419150897068768</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.242786972454816</v>
+        <v>0.1007059359040987</v>
       </c>
       <c r="K5">
-        <v>0.3233078777176814</v>
+        <v>0.677521275669676</v>
       </c>
       <c r="L5">
-        <v>0.3064971765733873</v>
+        <v>0.1903710245528671</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.533054731253188</v>
+        <v>2.610165027290066</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7349543296014645</v>
+        <v>0.8591206109088887</v>
       </c>
       <c r="C6">
-        <v>0.1642089784622982</v>
+        <v>0.115417654766393</v>
       </c>
       <c r="D6">
-        <v>0.1393776981947994</v>
+        <v>0.08059326310475967</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.105936175536371</v>
+        <v>0.9896309008903259</v>
       </c>
       <c r="G6">
-        <v>0.002525567624597058</v>
+        <v>0.0008420937292079978</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.242848797487099</v>
+        <v>0.1007222393462648</v>
       </c>
       <c r="K6">
-        <v>0.3219009847162937</v>
+        <v>0.6726678853197257</v>
       </c>
       <c r="L6">
-        <v>0.3063092998541919</v>
+        <v>0.1894138181460008</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.534660804493399</v>
+        <v>2.610446402726595</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7458766789663969</v>
+        <v>0.9006320071673031</v>
       </c>
       <c r="C7">
-        <v>0.1642356846243729</v>
+        <v>0.115475989013035</v>
       </c>
       <c r="D7">
-        <v>0.1399490425571486</v>
+        <v>0.08343683769788157</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.102720920259848</v>
+        <v>0.9925959785271914</v>
       </c>
       <c r="G7">
-        <v>0.002524736950479267</v>
+        <v>0.0008408614335036244</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2424270464354912</v>
+        <v>0.1006200014119969</v>
       </c>
       <c r="K7">
-        <v>0.3316728042959625</v>
+        <v>0.7063617097602446</v>
       </c>
       <c r="L7">
-        <v>0.3076245078783089</v>
+        <v>0.1960720284715407</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.52372803872521</v>
+        <v>2.608865143832872</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7947011460056785</v>
+        <v>1.084640982821384</v>
       </c>
       <c r="C8">
-        <v>0.1643825392946532</v>
+        <v>0.11580026242099</v>
       </c>
       <c r="D8">
-        <v>0.142583490218847</v>
+        <v>0.09611581658650437</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.090537018643317</v>
+        <v>1.009116510032264</v>
       </c>
       <c r="G8">
-        <v>0.002521265012766789</v>
+        <v>0.0008356106342601341</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2407484255960064</v>
+        <v>0.1004452363221766</v>
       </c>
       <c r="K8">
-        <v>0.3749495143986508</v>
+        <v>0.8552663511597132</v>
       </c>
       <c r="L8">
-        <v>0.3137029153087525</v>
+        <v>0.2258248955071309</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.480805519456908</v>
+        <v>2.611361143797581</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8926556043767562</v>
+        <v>1.449513883759323</v>
       </c>
       <c r="C9">
-        <v>0.1647733794872934</v>
+        <v>0.1166841690122666</v>
       </c>
       <c r="D9">
-        <v>0.1481522754924782</v>
+        <v>0.1215237169672463</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.073836320730962</v>
+        <v>1.054907298176985</v>
       </c>
       <c r="G9">
-        <v>0.002515148161920542</v>
+        <v>0.0008259612807310592</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2381106556054426</v>
+        <v>0.1011575643398857</v>
       </c>
       <c r="K9">
-        <v>0.4603443520740598</v>
+        <v>1.148828828829068</v>
       </c>
       <c r="L9">
-        <v>0.3266018712745762</v>
+        <v>0.285728629698923</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.415741505964405</v>
+        <v>2.653107695586357</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.965942634188707</v>
+        <v>1.721147566141894</v>
       </c>
       <c r="C10">
-        <v>0.1651220864001886</v>
+        <v>0.1174931720060357</v>
       </c>
       <c r="D10">
-        <v>0.1524859632556712</v>
+        <v>0.1405998025118151</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.065942019120712</v>
+        <v>1.097771234784005</v>
       </c>
       <c r="G10">
-        <v>0.002511071574108734</v>
+        <v>0.0008192415204388079</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2365698088022157</v>
+        <v>0.1023863334915056</v>
       </c>
       <c r="K10">
-        <v>0.5233875553033727</v>
+        <v>1.366266876753713</v>
       </c>
       <c r="L10">
-        <v>0.3366701830089056</v>
+        <v>0.3309203978100896</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.379573629572235</v>
+        <v>2.709076800890472</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9995641398391797</v>
+        <v>1.845758941935031</v>
       </c>
       <c r="C11">
-        <v>0.1652938537070128</v>
+        <v>0.117897962162985</v>
       </c>
       <c r="D11">
-        <v>0.15450944980131</v>
+        <v>0.1493851454254553</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.063299127300439</v>
+        <v>1.119524617997754</v>
       </c>
       <c r="G11">
-        <v>0.002509306792139741</v>
+        <v>0.0008162589115650128</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2359547429604589</v>
+        <v>0.103113280102253</v>
       </c>
       <c r="K11">
-        <v>0.5521298434086077</v>
+        <v>1.465760783249181</v>
       </c>
       <c r="L11">
-        <v>0.3413778631244355</v>
+        <v>0.351790635724285</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.365643701282949</v>
+        <v>2.740706116154115</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.012335790324272</v>
+        <v>1.893119385480702</v>
       </c>
       <c r="C12">
-        <v>0.1653607664180967</v>
+        <v>0.1180567246729893</v>
       </c>
       <c r="D12">
-        <v>0.1552831146413922</v>
+        <v>0.1527289889605328</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.062434527776745</v>
+        <v>1.128108688032711</v>
       </c>
       <c r="G12">
-        <v>0.002508651343890116</v>
+        <v>0.0008151396406979501</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2357341550016159</v>
+        <v>0.1034140304787954</v>
       </c>
       <c r="K12">
-        <v>0.5630225019697548</v>
+        <v>1.503537012830776</v>
       </c>
       <c r="L12">
-        <v>0.3431787630561729</v>
+        <v>0.3597433937614625</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.36073136835094</v>
+        <v>2.753630893816762</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.009583423682642</v>
+        <v>1.882911400552359</v>
       </c>
       <c r="C13">
-        <v>0.1653462728161372</v>
+        <v>0.1180222855156785</v>
       </c>
       <c r="D13">
-        <v>0.1551161634825604</v>
+        <v>0.152008049217855</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.06261467938441</v>
+        <v>1.126244169627199</v>
       </c>
       <c r="G13">
-        <v>0.002508791936474256</v>
+        <v>0.0008153802512645941</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2357811148329318</v>
+        <v>0.1033481037025012</v>
       </c>
       <c r="K13">
-        <v>0.560676200611681</v>
+        <v>1.49539649829191</v>
       </c>
       <c r="L13">
-        <v>0.3427900996261855</v>
+        <v>0.3580283375142557</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.361773201977229</v>
+        <v>2.750804165718421</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.000614075580586</v>
+        <v>1.849651714428916</v>
       </c>
       <c r="C14">
-        <v>0.1652993213356808</v>
+        <v>0.1179109127284192</v>
       </c>
       <c r="D14">
-        <v>0.1545729514965188</v>
+        <v>0.1496598949126025</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.063225267278895</v>
+        <v>1.120223755776891</v>
       </c>
       <c r="G14">
-        <v>0.002509252611013677</v>
+        <v>0.000816166627427169</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2359363482016867</v>
+        <v>0.1031375046608574</v>
       </c>
       <c r="K14">
-        <v>0.5530258203307881</v>
+        <v>1.468866551679525</v>
       </c>
       <c r="L14">
-        <v>0.3415256602108485</v>
+        <v>0.3524438904154152</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.36523229410102</v>
+        <v>2.741750095826745</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9951252666034236</v>
+        <v>1.829302405492513</v>
       </c>
       <c r="C15">
-        <v>0.1652708048635887</v>
+        <v>0.1178434129097852</v>
       </c>
       <c r="D15">
-        <v>0.1542411818736156</v>
+        <v>0.1482238479198088</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.063617003521045</v>
+        <v>1.116581898306151</v>
       </c>
       <c r="G15">
-        <v>0.002509536457517263</v>
+        <v>0.0008166496157436671</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2360330373669441</v>
+        <v>0.1030118644488205</v>
       </c>
       <c r="K15">
-        <v>0.5483408417044018</v>
+        <v>1.452629736754318</v>
       </c>
       <c r="L15">
-        <v>0.3407535211025703</v>
+        <v>0.34902986812682</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.367398307555874</v>
+        <v>2.736329467902124</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9637510167226537</v>
+        <v>1.71302682850424</v>
       </c>
       <c r="C16">
-        <v>0.1651111235729772</v>
+        <v>0.1174674737595822</v>
       </c>
       <c r="D16">
-        <v>0.1523547651735839</v>
+        <v>0.1400279546167411</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.066133806751765</v>
+        <v>1.09639683957613</v>
       </c>
       <c r="G16">
-        <v>0.002511188706227837</v>
+        <v>0.0008194378930084535</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2366117307064783</v>
+        <v>0.102342316418742</v>
       </c>
       <c r="K16">
-        <v>0.5215104105373598</v>
+        <v>1.359777783331793</v>
       </c>
       <c r="L16">
-        <v>0.3363650799180107</v>
+        <v>0.329563160632901</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.380534737484879</v>
+        <v>2.707138945763944</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9445758383662337</v>
+        <v>1.641978525520926</v>
       </c>
       <c r="C17">
-        <v>0.1650165142779443</v>
+        <v>0.1172463946796825</v>
       </c>
       <c r="D17">
-        <v>0.1512107939044256</v>
+        <v>0.1350286594880856</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.067920548614367</v>
+        <v>1.084606779767086</v>
       </c>
       <c r="G17">
-        <v>0.002512225233757093</v>
+        <v>0.0008211670818947009</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2369887171531389</v>
+        <v>0.1019755014777353</v>
       </c>
       <c r="K17">
-        <v>0.5050666977532785</v>
+        <v>1.302976159731855</v>
       </c>
       <c r="L17">
-        <v>0.3337054845268028</v>
+        <v>0.3177042203884781</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.389239590557679</v>
+        <v>2.690853091181424</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9335734531209994</v>
+        <v>1.601210216488653</v>
       </c>
       <c r="C18">
-        <v>0.1649633354491229</v>
+        <v>0.117122684499698</v>
       </c>
       <c r="D18">
-        <v>0.1505577173543315</v>
+        <v>0.1321632192533428</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.069037499676696</v>
+        <v>1.078036212067062</v>
       </c>
       <c r="G18">
-        <v>0.00251282986159746</v>
+        <v>0.0008221686853538152</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2372136340173405</v>
+        <v>0.1017802456453829</v>
       </c>
       <c r="K18">
-        <v>0.4956147311379766</v>
+        <v>1.270358917216612</v>
       </c>
       <c r="L18">
-        <v>0.3321877699148956</v>
+        <v>0.3109123609266788</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.394483881037075</v>
+        <v>2.682062663141977</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.929852838354293</v>
+        <v>1.587422727133685</v>
       </c>
       <c r="C19">
-        <v>0.164945543275735</v>
+        <v>0.1170813851681842</v>
       </c>
       <c r="D19">
-        <v>0.1503374416081158</v>
+        <v>0.1311947058912324</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.069431016031089</v>
+        <v>1.075847073368848</v>
       </c>
       <c r="G19">
-        <v>0.002513036030289411</v>
+        <v>0.000822509031453278</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2372911762198981</v>
+        <v>0.1017167977256541</v>
       </c>
       <c r="K19">
-        <v>0.492415509361507</v>
+        <v>1.259323990602553</v>
       </c>
       <c r="L19">
-        <v>0.3316759655205175</v>
+        <v>0.3086176109126058</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.396300302147381</v>
+        <v>2.679183664162821</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9466143140874976</v>
+        <v>1.649531561428631</v>
       </c>
       <c r="C20">
-        <v>0.165026457632159</v>
+        <v>0.1172695706826303</v>
       </c>
       <c r="D20">
-        <v>0.1513320644329355</v>
+        <v>0.1355597947708418</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.067721109469673</v>
+        <v>1.085839881594353</v>
       </c>
       <c r="G20">
-        <v>0.002512114020222671</v>
+        <v>0.0008209822838189385</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2369477497913124</v>
+        <v>0.1020129126751215</v>
       </c>
       <c r="K20">
-        <v>0.5068165399301563</v>
+        <v>1.309017131074</v>
       </c>
       <c r="L20">
-        <v>0.3339873605652315</v>
+        <v>0.3189635808688394</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.388288366130638</v>
+        <v>2.692526631386585</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.003247513277188</v>
+        <v>1.859416010760555</v>
       </c>
       <c r="C21">
-        <v>0.1653130615904601</v>
+        <v>0.1179434753663244</v>
       </c>
       <c r="D21">
-        <v>0.154732305383817</v>
+        <v>0.1503491297207518</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.063042227436242</v>
+        <v>1.121982506290038</v>
       </c>
       <c r="G21">
-        <v>0.002509116951900409</v>
+        <v>0.0008159353776091558</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2358904181183092</v>
+        <v>0.1031986604656083</v>
       </c>
       <c r="K21">
-        <v>0.5552726942026425</v>
+        <v>1.47665618622375</v>
       </c>
       <c r="L21">
-        <v>0.3418965637787039</v>
+        <v>0.3540827908395983</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.364206434681137</v>
+        <v>2.744383279422379</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.040492892581824</v>
+        <v>1.997606736154864</v>
       </c>
       <c r="C22">
-        <v>0.1655112532606893</v>
+        <v>0.118415937483114</v>
       </c>
       <c r="D22">
-        <v>0.1569977423397262</v>
+        <v>0.1601148527044387</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.060778150668568</v>
+        <v>1.147635218367284</v>
       </c>
       <c r="G22">
-        <v>0.002507232987860705</v>
+        <v>0.0008126960059189288</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2352712139666622</v>
+        <v>0.1041227606268151</v>
       </c>
       <c r="K22">
-        <v>0.5869913272315443</v>
+        <v>1.58680977952821</v>
       </c>
       <c r="L22">
-        <v>0.3471717259177751</v>
+        <v>0.3773270856599851</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.350581094617127</v>
+        <v>2.783828233369803</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.020593326870596</v>
+        <v>1.923750544998228</v>
       </c>
       <c r="C23">
-        <v>0.1654044861020196</v>
+        <v>0.1181607778522746</v>
       </c>
       <c r="D23">
-        <v>0.1557847089125772</v>
+        <v>0.1548930045648689</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.061913944989797</v>
+        <v>1.133750199880794</v>
       </c>
       <c r="G23">
-        <v>0.002508231670848939</v>
+        <v>0.0008144196870696235</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2355951310582896</v>
+        <v>0.103615444796489</v>
       </c>
       <c r="K23">
-        <v>0.5700581329967065</v>
+        <v>1.527958764131625</v>
       </c>
       <c r="L23">
-        <v>0.3443466155995338</v>
+        <v>0.3648928044149073</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.357659859977957</v>
+        <v>2.762246455118145</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9456926516260182</v>
+        <v>1.646116591683864</v>
       </c>
       <c r="C24">
-        <v>0.1650219584608763</v>
+        <v>0.1172590822635513</v>
       </c>
       <c r="D24">
-        <v>0.1512772236690978</v>
+        <v>0.1353196414617912</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.067810996392353</v>
+        <v>1.08528175100767</v>
       </c>
       <c r="G24">
-        <v>0.002512164272663464</v>
+        <v>0.0008210658077432501</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2369662456467161</v>
+        <v>0.1019959504843335</v>
       </c>
       <c r="K24">
-        <v>0.5060254308110927</v>
+        <v>1.306285888418472</v>
       </c>
       <c r="L24">
-        <v>0.3338598891313325</v>
+        <v>0.3183941433562438</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.388717667851097</v>
+        <v>2.691768245082471</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8659225809650195</v>
+        <v>1.350265002665907</v>
       </c>
       <c r="C25">
-        <v>0.1646567548666695</v>
+        <v>0.1164176790220495</v>
       </c>
       <c r="D25">
-        <v>0.1466029933380781</v>
+        <v>0.1145842622971429</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.077585256915413</v>
+        <v>1.040980772870107</v>
       </c>
       <c r="G25">
-        <v>0.002516729322632884</v>
+        <v>0.0008285048823734598</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2387543900651039</v>
+        <v>0.1008457201978779</v>
       </c>
       <c r="K25">
-        <v>0.4371880982680523</v>
+        <v>1.069165435433661</v>
       </c>
       <c r="L25">
-        <v>0.3230081004588499</v>
+        <v>0.2693333450069133</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.431298910570803</v>
+        <v>2.637587579091445</v>
       </c>
     </row>
   </sheetData>
